--- a/volume_fraction_birefringence.xlsx
+++ b/volume_fraction_birefringence.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="16275" windowHeight="7995" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>weight fraction</t>
   </si>
@@ -50,12 +50,33 @@
   <si>
     <t>unit thickness col biref</t>
   </si>
+  <si>
+    <t>mg HA/ccm</t>
+  </si>
+  <si>
+    <t>wt%</t>
+  </si>
+  <si>
+    <t>vol%</t>
+  </si>
+  <si>
+    <t>HAbiref</t>
+  </si>
+  <si>
+    <t>colIbiref</t>
+  </si>
+  <si>
+    <t>sumbiref</t>
+  </si>
+  <si>
+    <t>mgHA/ccm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,24 +126,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -131,7 +140,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$101</c:f>
+              <c:f>Sheet2!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -440,306 +449,306 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$101</c:f>
+              <c:f>Sheet2!$F$2:$F$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-3.5999581049334377E-3</c:v>
+                  <c:v>-3.5883388515746931E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.21648236196319E-3</c:v>
+                  <c:v>-3.1944409240873559E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.8485646130728764E-3</c:v>
+                  <c:v>-2.8171807718677753E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.4952768777614124E-3</c:v>
+                  <c:v>-2.4555260577953236E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.1557635379061356E-3</c:v>
+                  <c:v>-2.1085281197764068E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.8292344192634546E-3</c:v>
+                  <c:v>-1.7753136613793121E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.5149586518415589E-3</c:v>
+                  <c:v>-1.4550774133815175E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.2122592087312428E-3</c:v>
+                  <c:v>-1.1470756364030696E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.2050803750837271E-4</c:v>
+                  <c:v>-8.5062035426773869E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.3912171052631648E-4</c:v>
+                  <c:v>-5.6507422397754402E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.6755753070458978E-4</c:v>
+                  <c:v>-2.8984596178931871E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0531003811944028E-4</c:v>
+                  <c:v>-2.4386256312098221E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4809212991880039E-4</c:v>
+                  <c:v>2.3181589081944318E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.930890663390663E-4</c:v>
+                  <c:v>4.7923644799007566E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3009214501510676E-4</c:v>
+                  <c:v>7.1831930474809897E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5948632580261711E-4</c:v>
+                  <c:v>9.4947892954567016E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0816322410766542E-3</c:v>
+                  <c:v>1.1731027675527519E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.296868087557604E-3</c:v>
+                  <c:v>1.3895534077264949E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5055113442994888E-3</c:v>
+                  <c:v>1.5991705446327807E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7078603351955296E-3</c:v>
+                  <c:v>1.802272757346859E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9041956521739121E-3</c:v>
+                  <c:v>1.9991591250268057E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0947814533622553E-3</c:v>
+                  <c:v>2.1901106963910441E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2798666488508808E-3</c:v>
+                  <c:v>2.3753918282843974E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.4596859852476288E-3</c:v>
+                  <c:v>2.5552514067398932E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.6344610389610395E-3</c:v>
+                  <c:v>2.7299239623968796E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.8044011270491808E-3</c:v>
+                  <c:v>2.8996306907873182E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.9697041435068224E-3</c:v>
+                  <c:v>3.0645803868234395E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.1305573280159529E-3</c:v>
+                  <c:v>3.2249703017879754E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.2871379734382691E-3</c:v>
+                  <c:v>3.3809869302227728E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.4396140776699041E-3</c:v>
+                  <c:v>3.5328067333158372E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.588144944896982E-3</c:v>
+                  <c:v>3.6805968046860855E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.7328817407757801E-3</c:v>
+                  <c:v>3.8245154838469834E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8739680056048575E-3</c:v>
+                  <c:v>3.9647129220840276E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.0115401291512913E-3</c:v>
+                  <c:v>4.101331604997531E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.1457277904328018E-3</c:v>
+                  <c:v>4.234506835533597E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.2766543654365434E-3</c:v>
+                  <c:v>4.3643671809454844E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.4044373054690977E-3</c:v>
+                  <c:v>4.4910348867891201E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.5291884885764501E-3</c:v>
+                  <c:v>4.614626260754923E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.6510145462440302E-3</c:v>
+                  <c:v>4.7352520288692192E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.7700171673819751E-3</c:v>
+                  <c:v>4.8530176663582076E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.8862933814170567E-3</c:v>
+                  <c:v>4.9680237052525684E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.9999358221476525E-3</c:v>
+                  <c:v>5.0803660206182183E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.1110329738697632E-3</c:v>
+                  <c:v>5.1901360971260656E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.2196694011484813E-3</c:v>
+                  <c:v>5.2974212775185325E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.3259259634888438E-3</c:v>
+                  <c:v>5.4023049943911121E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.4298800160513649E-3</c:v>
+                  <c:v>5.5048669865816356E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.5316055974593088E-3</c:v>
+                  <c:v>5.6051835013467607E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.6311736056559314E-3</c:v>
+                  <c:v>5.7033274834029993E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.7286519626894676E-3</c:v>
+                  <c:v>5.7993687518172292E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.8241057692307689E-3</c:v>
+                  <c:v>5.8933741656482094E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.9175974495622383E-3</c:v>
+                  <c:v>5.9854077791648913E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.0091868877166542E-3</c:v>
+                  <c:v>6.0755309873988268E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.0989315553897812E-3</c:v>
+                  <c:v>6.1638026627256681E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.1868866322008871E-3</c:v>
+                  <c:v>6.2502792831142968E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.2731051188299816E-3</c:v>
+                  <c:v>6.3350150526306397E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.35763794351919E-3</c:v>
+                  <c:v>6.4180620147364547E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.4405340623879528E-3</c:v>
+                  <c:v>6.4994701588807456E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.5218405539772808E-3</c:v>
+                  <c:v>6.5792875208425137E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.6016027084066205E-3</c:v>
+                  <c:v>6.657560277248056E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.6798641114982652E-3</c:v>
+                  <c:v>6.7343328346537081E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.7566667241974535E-3</c:v>
+                  <c:v>6.8096479135549542E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.8320509575923467E-3</c:v>
+                  <c:v>6.8835466276559966E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.9060557438156631E-3</c:v>
+                  <c:v>6.9560685587087825E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.9787186030893294E-3</c:v>
+                  <c:v>7.0272518272077198E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.05007570715475E-3</c:v>
+                  <c:v>7.0971331592053991E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.120161939313991E-3</c:v>
+                  <c:v>7.1657479494953782E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.1890109512912793E-3</c:v>
+                  <c:v>7.2331303213903986E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.2566552171095342E-3</c:v>
+                  <c:v>7.299313183308182E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.3231260841631939E-3</c:v>
+                  <c:v>7.3643282823619332E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.3884538216560571E-3</c:v>
+                  <c:v>7.4282062551389322E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.452667666561422E-3</c:v>
+                  <c:v>7.49097667583783E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.5157958672511013E-3</c:v>
+                  <c:v>7.5526681019235748E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.5778657249301528E-3</c:v>
+                  <c:v>7.6133081174480522E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.6389036330049313E-3</c:v>
+                  <c:v>7.6729233741744639E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.6989351145038219E-3</c:v>
+                  <c:v>7.7315396306343181E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.7579848576620281E-3</c:v>
+                  <c:v>7.7891817892372242E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.8160767497747127E-3</c:v>
+                  <c:v>7.8458739315458454E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.8732339094159769E-3</c:v>
+                  <c:v>7.9016393518209788E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.9294787171149926E-3</c:v>
+                  <c:v>7.9565005889349338E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.9848328445747841E-3</c:v>
+                  <c:v>8.0104794567450403E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.0393172825138255E-3</c:v>
+                  <c:v>8.0635970730133372E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.0929523672055477E-3</c:v>
+                  <c:v>8.1158738869528887E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.1457578057863127E-3</c:v>
+                  <c:v>8.1673297054763363E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.1977527003979592E-3</c:v>
+                  <c:v>8.217983718217357E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.248955571227087E-3</c:v>
+                  <c:v>8.2678545213914975E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.2993843784994453E-3</c:v>
+                  <c:v>8.3169601405587018E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.3490565434843067E-3</c:v>
+                  <c:v>8.3653180523460408E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.3979889685604006E-3</c:v>
+                  <c:v>8.4129452051856755E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.4461980563920128E-3</c:v>
+                  <c:v>8.4598580391196977E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.4936997282608739E-3</c:v>
+                  <c:v>8.5060725047205361E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.5405094415969829E-3</c:v>
+                  <c:v>8.5516040811725851E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.5866422067488006E-3</c:v>
+                  <c:v>8.5964677935581948E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.6321126030311137E-3</c:v>
+                  <c:v>8.6406782293885279E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.6769347940865941E-3</c:v>
+                  <c:v>8.6842495544174909E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.721122542595024E-3</c:v>
+                  <c:v>8.7271955277747771E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>8.764689224362316E-3</c:v>
+                  <c:v>8.7695295164519627E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>8.807647841819595E-3</c:v>
+                  <c:v>8.8112645091736989E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>8.8500110369609895E-3</c:v>
+                  <c:v>8.8524131296842355E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>8.8917911037471355E-3</c:v>
+                  <c:v>8.8929876494778289E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>8.933E-3</c:v>
@@ -747,52 +756,36 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="75957760"/>
-        <c:axId val="86426176"/>
+        <c:axId val="43232256"/>
+        <c:axId val="43238144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75957760"/>
+        <c:axId val="43232256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86426176"/>
+        <c:crossAx val="43238144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86426176"/>
+        <c:axId val="43238144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75957760"/>
+        <c:crossAx val="43232256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -800,15 +793,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -818,13 +809,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -924,7 +915,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -959,7 +949,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1135,21 +1124,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="60">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,8 +1151,11 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1171,23 +1163,31 @@
         <v>0.86</v>
       </c>
       <c r="D2">
-        <f>(C2/3.16)/((1-C2)+(C2/3.16))</f>
-        <v>0.66031941031941033</v>
+        <f>(C2/3.16)/(((1-C2)*1.03)+(C2/3.16))</f>
+        <v>0.6536583586182575</v>
       </c>
       <c r="E2">
         <f>-0.004*D2</f>
-        <v>-2.6412776412776413E-3</v>
+        <v>-2.6146334344730299E-3</v>
       </c>
       <c r="F2">
         <f>(1-D2)*0.008933</f>
-        <v>3.0343667076167076E-3</v>
+        <v>3.0938698824631056E-3</v>
       </c>
       <c r="G2">
         <f>E2+F2</f>
-        <v>3.930890663390663E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.7923644799007566E-4</v>
+      </c>
+      <c r="H2">
+        <f>3.16*D2*1000</f>
+        <v>2065.5604132336939</v>
+      </c>
+      <c r="J2">
+        <f>((H2/3160)*-0.004)+((1-(H2/3160))*0.008933)</f>
+        <v>4.7923644799007436E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1195,170 +1195,202 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D11" si="0">(C3/3.16)/((1-C3)+(C3/3.16))</f>
-        <v>0.30411073825503349</v>
+        <f t="shared" ref="D3:D11" si="0">(C3/3.16)/(((1-C3)*1.03)+(C3/3.16))</f>
+        <v>0.29789174819313247</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" si="1">-0.004*D3</f>
-        <v>-1.216442953020134E-3</v>
+        <v>-1.1915669927725298E-3</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F11" si="2">(1-D3)*0.008933</f>
-        <v>6.2163787751677866E-3</v>
+        <v>6.2719330133907481E-3</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="3">E3+F3</f>
-        <v>4.9999358221476525E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.0803660206182183E-3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="4">3.16*D3*1000</f>
+        <v>941.33792429029859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4">
         <v>0.55000000000000004</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.27890466531440167</v>
+        <v>0.27299891793156167</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>-1.1156186612576067E-3</v>
+        <v>-1.0919956717262468E-3</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>6.4415446247464503E-3</v>
+        <v>6.4943006661173589E-3</v>
       </c>
       <c r="G4">
         <f t="shared" si="3"/>
-        <v>5.3259259634888438E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.4023049943911121E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>862.67658066373485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="C5">
         <v>0.5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.24038461538461536</v>
+        <v>0.23502867349816675</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>-9.6153846153846148E-4</v>
+        <v>-9.4011469399266708E-4</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>6.7856442307692305E-3</v>
+        <v>6.8334888596408763E-3</v>
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
-        <v>5.8241057692307689E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.8933741656482094E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>742.69060825420695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="C6">
         <v>0.45</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.20566727605118831</v>
+        <v>0.20088030212397437</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>-8.2266910420475327E-4</v>
+        <v>-8.0352120849589749E-4</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>7.0957742230347348E-3</v>
+        <v>7.1385362611265371E-3</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>6.2731051188299816E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.3350150526306397E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>634.78175471175905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="C7">
         <v>0.4</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.17421602787456447</v>
+        <v>0.170004420114923</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>-6.9686411149825795E-4</v>
+        <v>-6.8001768045969206E-4</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>7.3767282229965153E-3</v>
+        <v>7.414350515113393E-3</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>6.6798641114982574E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.7343328346537012E-3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>537.21396756315676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="C8">
         <v>0.35</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.14559068219633942</v>
+        <v>0.14195212563168694</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>-5.823627287853577E-4</v>
+        <v>-5.678085025267478E-4</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>7.6324384359401001E-3</v>
+        <v>7.6649416617321411E-3</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>7.0500757071547421E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.0971331592053931E-3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>448.56871699613077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="C9">
         <v>0.3</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.11942675159235669</v>
+        <v>0.11635303060860391</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>-4.7770700636942675E-4</v>
+        <v>-4.6541212243441564E-4</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>7.8661608280254768E-3</v>
+        <v>7.8936183775733405E-3</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>7.3884538216560502E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.4282062551389244E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>367.67557672318839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="C10">
         <v>0.25</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>9.5419847328244267E-2</v>
+        <v>9.2898814611125563E-2</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>-3.816793893129771E-4</v>
+        <v>-3.7159525844450224E-4</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>8.0806145038167937E-3</v>
+        <v>8.1031348890788155E-3</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>7.6989351145038167E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.7315396306343129E-3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>293.56025417115677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1367,22 +1399,26 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>7.331378299120235E-2</v>
+        <v>7.1330746404930381E-2</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>-2.9325513196480938E-4</v>
+        <v>-2.8532298561972154E-4</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>8.2780879765395887E-3</v>
+        <v>8.2958024423647574E-3</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>7.9848328445747789E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.0104794567450351E-3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>225.40515863958001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1390,22 +1426,22 @@
         <v>8.933E-3</v>
       </c>
     </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:10">
       <c r="J17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:10">
       <c r="J18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:10">
       <c r="J19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:10">
       <c r="H22">
         <f>(0.005-(0.30411*-0.004))/(1-0.30411)</f>
         <v>8.9330785037865183E-3</v>
@@ -1418,2100 +1454,2512 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2">
         <v>0.99</v>
       </c>
-      <c r="B2">
-        <f>(A2/3.16)/((1-A2)+(A2/3.16))</f>
-        <v>0.96906812842599843</v>
-      </c>
       <c r="C2">
-        <f>-0.004*B2</f>
-        <v>-3.8762725137039939E-3</v>
+        <f>(B2/3.16)/(((1-B2)*1.03)+(B2/3.16))</f>
+        <v>0.96816970939261526</v>
       </c>
       <c r="D2">
-        <f>(1-B2)*0.008933</f>
-        <v>2.7631440877055603E-4</v>
+        <f>-0.004*C2</f>
+        <v>-3.872678837570461E-3</v>
       </c>
       <c r="E2">
-        <f>C2+D2</f>
-        <v>-3.5999581049334377E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <f>(1-C2)*0.008933</f>
+        <v>2.8433998599576788E-4</v>
+      </c>
+      <c r="F2">
+        <f>D2+E2</f>
+        <v>-3.5883388515746931E-3</v>
+      </c>
+      <c r="G2">
+        <f>3.16*B2*1000</f>
+        <v>3128.4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3">
         <v>0.98</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">(A3/3.16)/((1-A3)+(A3/3.16))</f>
-        <v>0.93941717791411039</v>
-      </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="1">-0.004*B3</f>
-        <v>-3.7576687116564417E-3</v>
+        <f t="shared" ref="C3:C66" si="0">(B3/3.16)/(((1-B3)*1.03)+(B3/3.16))</f>
+        <v>0.93771289910209199</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="2">(1-B3)*0.008933</f>
-        <v>5.4118634969325193E-4</v>
+        <f t="shared" ref="D3:D66" si="1">-0.004*C3</f>
+        <v>-3.7508515964083679E-3</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="3">C3+D3</f>
-        <v>-3.21648236196319E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <f t="shared" ref="E3:E66" si="2">(1-C3)*0.008933</f>
+        <v>5.5641067232101225E-4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="3">D3+E3</f>
+        <v>-3.1944409240873559E-3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="4">3.16*B3*1000</f>
+        <v>3096.8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
         <v>0.97</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>0.91096919609316296</v>
-      </c>
       <c r="C4">
-        <f t="shared" si="1"/>
-        <v>-3.6438767843726518E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.90854254789049527</v>
       </c>
       <c r="D4">
-        <f t="shared" si="2"/>
-        <v>7.9531217129977531E-4</v>
+        <f t="shared" si="1"/>
+        <v>-3.6341701915619811E-3</v>
       </c>
       <c r="E4">
-        <f t="shared" si="3"/>
-        <v>-2.8485646130728764E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <f t="shared" si="2"/>
+        <v>8.1698941969420577E-4</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>-2.8171807718677753E-3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>3065.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
         <v>0.96</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.88365243004418248</v>
-      </c>
       <c r="C5">
-        <f t="shared" si="1"/>
-        <v>-3.5346097201767301E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.88057883382009772</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
-        <v>1.0393328424153179E-3</v>
+        <f t="shared" si="1"/>
+        <v>-3.5223153352803909E-3</v>
       </c>
       <c r="E5">
-        <f t="shared" si="3"/>
-        <v>-2.4952768777614124E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <f t="shared" si="2"/>
+        <v>1.0667892774850671E-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>-2.4555260577953236E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>3033.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
         <v>0.95</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>0.85740072202166051</v>
-      </c>
       <c r="C6">
-        <f t="shared" si="1"/>
-        <v>-3.4296028880866423E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.85374840483850667</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
-        <v>1.2738393501805067E-3</v>
+        <f t="shared" si="1"/>
+        <v>-3.4149936193540267E-3</v>
       </c>
       <c r="E6">
-        <f t="shared" si="3"/>
-        <v>-2.1557635379061356E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <f t="shared" si="2"/>
+        <v>1.3064654995776199E-3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>-2.1085281197764068E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
         <v>0.94</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.83215297450424919</v>
-      </c>
       <c r="C7">
-        <f t="shared" si="1"/>
-        <v>-3.3286118980169967E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.8279837362854181</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
-        <v>1.4993774787535421E-3</v>
+        <f t="shared" si="1"/>
+        <v>-3.3119349451416723E-3</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
-        <v>-1.8292344192634546E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>1.5366212837623601E-3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>-1.7753136613793121E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>2970.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8">
         <v>0.93</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0.80785267546907591</v>
-      </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>-3.2314107018763037E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.80322256347185628</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
-        <v>1.7164520500347448E-3</v>
+        <f t="shared" si="1"/>
+        <v>-3.2128902538874253E-3</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
-        <v>-1.5149586518415589E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>1.7578128405059078E-3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>-1.4550774133815175E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>2938.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9">
         <v>0.92</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>0.78444747612551169</v>
-      </c>
       <c r="C9">
-        <f t="shared" si="1"/>
-        <v>-3.1377899045020468E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.77940737929351811</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
-        <v>1.925530695770804E-3</v>
+        <f t="shared" si="1"/>
+        <v>-3.1176295171740725E-3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
-        <v>-1.2122592087312428E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>1.9705538807710029E-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>-1.1470756364030696E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>2907.2000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10">
         <v>0.91</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>0.76188881446751511</v>
-      </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>-3.0475552578700603E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.75648498834514333</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>2.1270472203616876E-3</v>
+        <f t="shared" si="1"/>
+        <v>-3.0259399533805733E-3</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
-        <v>-9.2050803750837271E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>2.1753195991128346E-3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>-8.5062035426773869E-4</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>2875.6000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11">
         <v>0.9</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>0.74013157894736847</v>
-      </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>-2.9605263157894738E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.7344061102588374</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>2.3214046052631573E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.9376244410353495E-3</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
-        <v>-6.3912171052631648E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>2.3725502170578055E-3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>-5.6507422397754402E-4</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>2844.0000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
         <v>0.89</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0.71913380736910149</v>
-      </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>-2.8765352294764061E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.71312502604108241</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
-        <v>2.5089776987718164E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.8525001041643295E-3</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
-        <v>-3.6755753070458978E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>2.5626541423750108E-3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>-2.8984596178931871E-4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>2812.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
         <v>0.88</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0.69885641677255395</v>
-      </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>-2.7954256670902158E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.69259926206696809</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
-        <v>2.6901156289707755E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.7703970482678723E-3</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
-        <v>-1.0531003811944028E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>2.7460107919557741E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>-2.4386256312098221E-5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>2780.8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14">
         <v>0.87</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0.67926296064959402</v>
-      </c>
       <c r="C14">
-        <f t="shared" si="1"/>
-        <v>-2.7170518425983763E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.67278930713527851</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>2.8651439725171767E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.691157228541114E-3</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
-        <v>1.4809212991880039E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>2.9229731193605572E-3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>2.3181589081944318E-4</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>2749.2000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15">
         <v>0.86</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0.66031941031941033</v>
-      </c>
       <c r="C15">
-        <f t="shared" si="1"/>
-        <v>-2.6412776412776413E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.6536583586182575</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>3.0343667076167076E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.6146334344730299E-3</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
-        <v>3.930890663390663E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>3.0938698824631056E-3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>4.7923644799007566E-4</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>2717.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
         <v>0.85</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>0.64199395770392742</v>
-      </c>
       <c r="C16">
-        <f t="shared" si="1"/>
-        <v>-2.5679758308157098E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.63517209427448396</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
-        <v>3.1980679758308165E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.5406883770979359E-3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
-        <v>6.3009214501510676E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>3.2590076818460349E-3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>7.1831930474809897E-4</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17">
         <v>0.84</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>0.62425683709869195</v>
-      </c>
       <c r="C17">
-        <f t="shared" si="1"/>
-        <v>-2.4970273483947676E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.61729846674818911</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
-        <v>3.3565136741973848E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.4691938669927564E-3</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
-        <v>8.5948632580261711E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>3.4186727965384266E-3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>9.4947892954567016E-4</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>2654.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18">
         <v>0.83</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>0.60708016383850194</v>
-      </c>
       <c r="C18">
-        <f t="shared" si="1"/>
-        <v>-2.4283206553540079E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.60000751816649256</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
-        <v>3.5099528964306621E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000300726659701E-3</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
-        <v>1.0816322410766542E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>3.573132840218722E-3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>1.1731027675527519E-3</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>2622.7999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19">
         <v>0.82</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>0.59043778801843316</v>
-      </c>
       <c r="C19">
-        <f t="shared" si="1"/>
-        <v>-2.3617511520737326E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.58327121257817249</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
-        <v>3.6586192396313366E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.3330848503126901E-3</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
-        <v>1.296868087557604E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>3.722638258039185E-3</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>1.3895534077264949E-3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>2591.2000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20">
         <v>0.81</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>0.57430516165626777</v>
-      </c>
       <c r="C20">
-        <f t="shared" si="1"/>
-        <v>-2.2972206466250712E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.56706328426252373</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
-        <v>3.80273199092456E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.2682531370500948E-3</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
-        <v>1.5055113442994888E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>3.8674236816828756E-3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>1.5991705446327807E-3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>2559.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21">
         <v>0.8</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>0.55865921787709505</v>
-      </c>
       <c r="C21">
-        <f t="shared" si="1"/>
-        <v>-2.2346368715083801E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.55135910018194856</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
-        <v>3.9424972067039097E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.2054364007277941E-3</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
-        <v>1.7078603351955296E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>4.0077091580746531E-3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>1.802272757346859E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>2528.0000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
         <v>0.79</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>0.5434782608695653</v>
-      </c>
       <c r="C22">
-        <f t="shared" si="1"/>
-        <v>-2.1739130434782613E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.53613553506326406</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
-        <v>4.0781086956521734E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.1445421402530563E-3</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
-        <v>1.9041956521739121E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>4.1437012652798619E-3</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>1.9991591250268057E-3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>2496.4000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23">
         <v>0.78</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>0.52874186550976143</v>
-      </c>
       <c r="C23">
-        <f t="shared" si="1"/>
-        <v>-2.1149674620390456E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.52137085777537739</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
-        <v>4.2097489154013009E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.0854834311015095E-3</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
-        <v>2.0947814533622553E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>4.2755941274925536E-3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>2.1901106963910441E-3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>2464.8000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24">
         <v>0.77</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>0.51443078567610911</v>
-      </c>
       <c r="C24">
-        <f t="shared" si="1"/>
-        <v>-2.0577231427044364E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.5070446278292432</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
-        <v>4.3375897915553172E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.028178511316973E-3</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
-        <v>2.2798666488508808E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>4.4035703396013703E-3</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>2.3753918282843974E-3</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>2433.2000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25">
         <v>0.76</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>0.50052687038988408</v>
-      </c>
       <c r="C25">
-        <f t="shared" si="1"/>
-        <v>-2.0021074815595365E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.49313760096343512</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
-        <v>4.4617934668071653E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.9725504038537404E-3</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
-        <v>2.4596859852476288E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>4.5278018105936336E-3</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>2.5552514067398932E-3</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>2401.6000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26">
         <v>0.75</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>0.48701298701298701</v>
-      </c>
       <c r="C26">
-        <f t="shared" si="1"/>
-        <v>-1.9480519480519481E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.47963164289825411</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
-        <v>4.5825129870129874E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.9185265715930165E-3</v>
       </c>
       <c r="E26">
-        <f t="shared" si="3"/>
-        <v>2.6344610389610395E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>4.6484505339898959E-3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>2.7299239623968796E-3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27">
         <v>0.74</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>0.47387295081967207</v>
-      </c>
       <c r="C27">
-        <f t="shared" si="1"/>
-        <v>-1.8954918032786884E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.46650965044557968</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
-        <v>4.6998929303278692E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.8660386017823188E-3</v>
       </c>
       <c r="E27">
-        <f t="shared" si="3"/>
-        <v>2.8044011270491808E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>4.7656692925696371E-3</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>2.8996306907873182E-3</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>2338.4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28">
         <v>0.73</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>0.46109146033350173</v>
-      </c>
       <c r="C28">
-        <f t="shared" si="1"/>
-        <v>-1.844365841334007E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.45375547925280763</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
-        <v>4.8140699848408294E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.8150219170112306E-3</v>
       </c>
       <c r="E28">
-        <f t="shared" si="3"/>
-        <v>2.9697041435068224E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>4.8796023038346703E-3</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>3.0645803868234395E-3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>2306.8000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29">
         <v>0.72</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>0.44865403788634095</v>
-      </c>
       <c r="C29">
-        <f t="shared" si="1"/>
-        <v>-1.7946161515453639E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.44135387753901067</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
-        <v>4.9251734795613166E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.7654155101560428E-3</v>
       </c>
       <c r="E29">
-        <f t="shared" si="3"/>
-        <v>3.1305573280159529E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>4.9903858119440181E-3</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>3.2249703017879754E-3</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>2275.1999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30">
         <v>0.71</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>0.43654697491392025</v>
-      </c>
       <c r="C30">
-        <f t="shared" si="1"/>
-        <v>-1.7461878996556811E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.42929042525146738</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
-        <v>5.0333258730939504E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.7171617010058695E-3</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
-        <v>3.2871379734382691E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>5.0981486312286425E-3</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>3.3809869302227728E-3</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>2243.6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31">
         <v>0.7</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>0.42475728155339804</v>
-      </c>
       <c r="C31">
-        <f t="shared" si="1"/>
-        <v>-1.6990291262135922E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.41755147813223253</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
-        <v>5.1386432038834961E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.6702059125289302E-3</v>
       </c>
       <c r="E31">
-        <f t="shared" si="3"/>
-        <v>3.4396140776699041E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>5.2030126458447673E-3</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>3.5328067333158372E-3</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>2211.9999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32">
         <v>0.69</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>0.4132726401533301</v>
-      </c>
       <c r="C32">
-        <f t="shared" si="1"/>
-        <v>-1.6530905606133204E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.40612411623860778</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
-        <v>5.2412355055103024E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.6244964649544311E-3</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
-        <v>3.588144944896982E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>5.3050932696405168E-3</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>3.6805968046860855E-3</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>2180.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33">
         <v>0.68</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>0.40208136234626302</v>
-      </c>
       <c r="C33">
-        <f t="shared" si="1"/>
-        <v>-1.608325449385052E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.39499609650916395</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
-        <v>5.3412071901608321E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.5799843860366558E-3</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
-        <v>3.7328817407757801E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>5.4044998698836392E-3</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>3.8245154838469834E-3</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>2148.8000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34">
         <v>0.67</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>0.39117234936945355</v>
-      </c>
       <c r="C34">
-        <f t="shared" si="1"/>
-        <v>-1.5646893974778143E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.3841558090091991</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
-        <v>5.4386574030826718E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.5366232360367964E-3</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
-        <v>3.8739680056048575E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>5.5013361581208245E-3</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>3.9647129220840276E-3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>2117.2000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35">
         <v>0.66</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>0.38053505535055354</v>
-      </c>
       <c r="C35">
-        <f t="shared" si="1"/>
-        <v>-1.5221402214022142E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.37359223652690549</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
-        <v>5.5336803505535055E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.494368946107622E-3</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
-        <v>4.0115401291512913E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>5.5957005511051532E-3</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>4.101331604997531E-3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>2085.6000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36">
         <v>0.65</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>0.37015945330296129</v>
-      </c>
       <c r="C36">
-        <f t="shared" si="1"/>
-        <v>-1.4806378132118452E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.36329491722465035</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
-        <v>5.6263656036446468E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.4531796688986014E-3</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
-        <v>4.1457277904328018E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>5.6876865044321982E-3</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>4.234506835533597E-3</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>2054.0000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37">
         <v>0.64</v>
       </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>0.36003600360036003</v>
-      </c>
       <c r="C37">
-        <f t="shared" si="1"/>
-        <v>-1.4401440144014401E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.35325391007921719</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
-        <v>5.7167983798379835E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.4130156403168689E-3</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
-        <v>4.2766543654365434E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>5.7773828212623534E-3</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>4.3643671809454844E-3</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>2022.4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38">
         <v>0.63</v>
       </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>0.35015562472209871</v>
-      </c>
       <c r="C38">
-        <f t="shared" si="1"/>
-        <v>-1.4006224988883948E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.34345976287101831</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
-        <v>5.8050598043574925E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.3738390514840733E-3</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
-        <v>4.4044373054690977E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>5.8648739382731931E-3</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>4.4910348867891201E-3</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>1990.8000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39">
         <v>0.62</v>
       </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>0.34050966608084354</v>
-      </c>
       <c r="C39">
-        <f t="shared" si="1"/>
-        <v>-1.3620386643233742E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.33390348250561169</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
-        <v>5.8912271528998245E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.3356139300224469E-3</v>
       </c>
       <c r="E39">
-        <f t="shared" si="3"/>
-        <v>4.5291884885764501E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>5.9502401907773703E-3</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>4.614626260754923E-3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>1959.2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40">
         <v>0.61</v>
       </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>0.33108988276161522</v>
-      </c>
       <c r="C40">
-        <f t="shared" si="1"/>
-        <v>-1.3243595310464609E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.32457650747164474</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
-        <v>5.9753740772904912E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.298306029886579E-3</v>
       </c>
       <c r="E40">
-        <f t="shared" si="3"/>
-        <v>4.6510145462440302E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>6.0335580587557985E-3</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>4.7352520288692192E-3</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>1927.6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41">
         <v>0.6</v>
       </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>0.32188841201716734</v>
-      </c>
       <c r="C41">
-        <f t="shared" si="1"/>
-        <v>-1.2875536480686693E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.31547068225792879</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
-        <v>6.0575708154506445E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.2618827290317152E-3</v>
       </c>
       <c r="E41">
-        <f t="shared" si="3"/>
-        <v>4.7700171673819751E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>6.1149003953899226E-3</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>4.8530176663582076E-3</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42">
         <v>0.59</v>
       </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>0.31289775137887138</v>
-      </c>
       <c r="C42">
-        <f t="shared" si="1"/>
-        <v>-1.2515910055154855E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.30657823356896552</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
-        <v>6.1378843869325421E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.2263129342758622E-3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="3"/>
-        <v>4.8862933814170567E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>6.194336639528431E-3</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>4.9680237052525684E-3</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>1864.4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43">
         <v>0.57999999999999996</v>
       </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>0.30411073825503349</v>
-      </c>
       <c r="C43">
-        <f t="shared" si="1"/>
-        <v>-1.216442953020134E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.29789174819313247</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
-        <v>6.2163787751677866E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.1915669927725298E-3</v>
       </c>
       <c r="E43">
-        <f t="shared" si="3"/>
-        <v>4.9999358221476525E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>6.2719330133907481E-3</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>5.0803660206182183E-3</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>1832.8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44">
         <v>0.56999999999999995</v>
       </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>0.29552053090004143</v>
-      </c>
       <c r="C44">
-        <f t="shared" si="1"/>
-        <v>-1.1820821236001658E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.28940415239108752</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
-        <v>6.293115097469929E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.1576166095643502E-3</v>
       </c>
       <c r="E44">
-        <f t="shared" si="3"/>
-        <v>5.1110329738697632E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>6.3477527066904153E-3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>5.1901360971260656E-3</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>1801.1999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45">
         <v>0.56000000000000005</v>
       </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>0.28712059064807222</v>
-      </c>
       <c r="C45">
-        <f t="shared" si="1"/>
-        <v>-1.1484823625922888E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.28110869268394556</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
-        <v>6.3681517637407701E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.1244347707357822E-3</v>
       </c>
       <c r="E45">
-        <f t="shared" si="3"/>
-        <v>5.2196694011484813E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>6.4218560482543147E-3</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>5.2974212775185325E-3</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>1769.6000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>0.27890466531440167</v>
-      </c>
       <c r="C46">
-        <f t="shared" si="1"/>
-        <v>-1.1156186612576067E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.27299891793156167</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
-        <v>6.4415446247464503E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.0919956717262468E-3</v>
       </c>
       <c r="E46">
-        <f t="shared" si="3"/>
-        <v>5.3259259634888438E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>6.4943006661173589E-3</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>5.4023049943911121E-3</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>1738.0000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47">
         <v>0.54</v>
       </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
-        <v>0.27086677367576245</v>
-      </c>
       <c r="C47">
-        <f t="shared" si="1"/>
-        <v>-1.0834670947030497E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.26506866260097151</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
-        <v>6.5133471107544144E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.0602746504038861E-3</v>
       </c>
       <c r="E47">
-        <f t="shared" si="3"/>
-        <v>5.4298800160513649E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>6.5651416369855217E-3</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>5.5048669865816356E-3</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>1706.4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48">
         <v>0.53</v>
       </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>0.26300119094878921</v>
-      </c>
       <c r="C48">
-        <f t="shared" si="1"/>
-        <v>-1.0520047637951569E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.25731203113378481</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
-        <v>6.5836103612544657E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.0292481245351393E-3</v>
       </c>
       <c r="E48">
-        <f t="shared" si="3"/>
-        <v>5.5316055974593088E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>6.6344316258818998E-3</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>5.6051835013467607E-3</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>1674.8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49">
         <v>0.52</v>
       </c>
-      <c r="B49">
-        <f t="shared" si="0"/>
-        <v>0.25530243519245877</v>
-      </c>
       <c r="C49">
-        <f t="shared" si="1"/>
-        <v>-1.0212097407698351E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.24972338332923533</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
-        <v>6.6523833464257661E-3</v>
+        <f t="shared" si="1"/>
+        <v>-9.9889353331694122E-4</v>
       </c>
       <c r="E49">
-        <f t="shared" si="3"/>
-        <v>5.6311736056559314E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>6.7022210167199401E-3</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>5.7033274834029993E-3</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>1643.2000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50">
         <v>0.51</v>
       </c>
-      <c r="B50">
-        <f t="shared" si="0"/>
-        <v>0.24776525456665371</v>
-      </c>
       <c r="C50">
-        <f t="shared" si="1"/>
-        <v>-9.910610182666149E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.24229732066672621</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
-        <v>6.7197129809560821E-3</v>
+        <f t="shared" si="1"/>
+        <v>-9.6918928266690482E-4</v>
       </c>
       <c r="E50">
-        <f t="shared" si="3"/>
-        <v>5.7286519626894676E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>6.7685580344841343E-3</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>5.7993687518172292E-3</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>1611.6000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51">
         <v>0.5</v>
       </c>
-      <c r="B51">
-        <f t="shared" si="0"/>
-        <v>0.24038461538461536</v>
-      </c>
       <c r="C51">
-        <f t="shared" si="1"/>
-        <v>-9.6153846153846148E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.23502867349816675</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
-        <v>6.7856442307692305E-3</v>
+        <f t="shared" si="1"/>
+        <v>-9.4011469399266708E-4</v>
       </c>
       <c r="E51">
-        <f t="shared" si="3"/>
-        <v>5.8241057692307689E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>6.8334888596408763E-3</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>5.8933741656482094E-3</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52">
         <v>0.49</v>
       </c>
-      <c r="B52">
-        <f t="shared" si="0"/>
-        <v>0.23315569090216978</v>
-      </c>
       <c r="C52">
-        <f t="shared" si="1"/>
-        <v>-9.3262276360867914E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.22791248904624667</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
-        <v>6.8502202131709173E-3</v>
+        <f t="shared" si="1"/>
+        <v>-9.1164995618498671E-4</v>
       </c>
       <c r="E52">
-        <f t="shared" si="3"/>
-        <v>5.9175974495622383E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>6.8970577353498781E-3</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>5.9854077791648913E-3</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>1548.4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53">
         <v>0.48</v>
       </c>
-      <c r="B53">
-        <f t="shared" si="0"/>
-        <v>0.22607385079125847</v>
-      </c>
       <c r="C53">
-        <f t="shared" si="1"/>
-        <v>-9.0429540316503386E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.22094402015009459</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
-        <v>6.913482290881688E-3</v>
+        <f t="shared" si="1"/>
+        <v>-8.8377608060037844E-4</v>
       </c>
       <c r="E53">
-        <f t="shared" si="3"/>
-        <v>6.0091868877166542E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>6.9593070679992049E-3</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>6.0755309873988268E-3</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>1516.8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54">
         <v>0.47</v>
       </c>
-      <c r="B54">
-        <f t="shared" si="0"/>
-        <v>0.21913465124953371</v>
-      </c>
       <c r="C54">
-        <f t="shared" si="1"/>
-        <v>-8.7653860499813487E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.21411871470457991</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
-        <v>6.9754701603879157E-3</v>
+        <f t="shared" si="1"/>
+        <v>-8.5647485881831971E-4</v>
       </c>
       <c r="E54">
-        <f t="shared" si="3"/>
-        <v>6.0989315553897812E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>7.0202775215439878E-3</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>6.1638026627256681E-3</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>1485.2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55">
         <v>0.46</v>
       </c>
-      <c r="B55">
-        <f t="shared" si="0"/>
-        <v>0.21233382570162479</v>
-      </c>
       <c r="C55">
-        <f t="shared" si="1"/>
-        <v>-8.4933530280649917E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.20743220574388796</v>
       </c>
       <c r="D55">
-        <f t="shared" si="2"/>
-        <v>7.0362219350073862E-3</v>
+        <f t="shared" si="1"/>
+        <v>-8.2972882297555181E-4</v>
       </c>
       <c r="E55">
-        <f t="shared" si="3"/>
-        <v>6.1868866322008871E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>7.0800081060898483E-3</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>6.2502792831142968E-3</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>1453.6000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56">
         <v>0.45</v>
       </c>
-      <c r="B56">
-        <f t="shared" si="0"/>
-        <v>0.20566727605118831</v>
-      </c>
       <c r="C56">
-        <f t="shared" si="1"/>
-        <v>-8.2266910420475327E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.20088030212397437</v>
       </c>
       <c r="D56">
-        <f t="shared" si="2"/>
-        <v>7.0957742230347348E-3</v>
+        <f t="shared" si="1"/>
+        <v>-8.0352120849589749E-4</v>
       </c>
       <c r="E56">
-        <f t="shared" si="3"/>
-        <v>6.2731051188299816E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>7.1385362611265371E-3</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>6.3350150526306397E-3</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>1422.0000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57">
         <v>0.44</v>
       </c>
-      <c r="B57">
-        <f t="shared" si="0"/>
-        <v>0.19913106444605358</v>
-      </c>
       <c r="C57">
-        <f t="shared" si="1"/>
-        <v>-7.9652425778421428E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.19445897976212362</v>
       </c>
       <c r="D57">
-        <f t="shared" si="2"/>
-        <v>7.154162201303404E-3</v>
+        <f t="shared" si="1"/>
+        <v>-7.7783591904849448E-4</v>
       </c>
       <c r="E57">
-        <f t="shared" si="3"/>
-        <v>6.35763794351919E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>7.1958979337849492E-3</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>6.4180620147364547E-3</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>1390.4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58">
         <v>0.43</v>
       </c>
-      <c r="B58">
-        <f t="shared" si="0"/>
-        <v>0.19272140552169234</v>
-      </c>
       <c r="C58">
-        <f t="shared" si="1"/>
-        <v>-7.7088562208676938E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.18816437339513292</v>
       </c>
       <c r="D58">
-        <f t="shared" si="2"/>
-        <v>7.2114196844747219E-3</v>
+        <f t="shared" si="1"/>
+        <v>-7.526574935805317E-4</v>
       </c>
       <c r="E58">
-        <f t="shared" si="3"/>
-        <v>6.4405340623879528E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>7.2521276524612774E-3</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>6.4994701588807456E-3</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>1358.8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59">
         <v>0.41999999999999899</v>
       </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>0.18643465909090848</v>
-      </c>
       <c r="C59">
-        <f t="shared" si="1"/>
-        <v>-7.457386363636339E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.18199276882065157</v>
       </c>
       <c r="D59">
-        <f t="shared" si="2"/>
-        <v>7.2675791903409146E-3</v>
+        <f t="shared" si="1"/>
+        <v>-7.2797107528260632E-4</v>
       </c>
       <c r="E59">
-        <f t="shared" si="3"/>
-        <v>6.5218405539772808E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>7.3072585961251203E-3</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>6.5792875208425137E-3</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>1327.1999999999969</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60">
         <v>0.40999999999999898</v>
       </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>0.18026732325008729</v>
-      </c>
       <c r="C60">
-        <f t="shared" si="1"/>
-        <v>-7.2106929300034921E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.17594059558895409</v>
       </c>
       <c r="D60">
-        <f t="shared" si="2"/>
-        <v>7.3226720014069697E-3</v>
+        <f t="shared" si="1"/>
+        <v>-7.0376238235581631E-4</v>
       </c>
       <c r="E60">
-        <f t="shared" si="3"/>
-        <v>6.6016027084066205E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>7.3613226596038724E-3</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>6.657560277248056E-3</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>1295.5999999999967</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61">
         <v>0.39999999999999902</v>
       </c>
-      <c r="B61">
-        <f t="shared" si="0"/>
-        <v>0.17421602787456386</v>
-      </c>
       <c r="C61">
-        <f t="shared" si="1"/>
-        <v>-6.9686411149825545E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.17000442011492239</v>
       </c>
       <c r="D61">
-        <f t="shared" si="2"/>
-        <v>7.3767282229965205E-3</v>
+        <f t="shared" si="1"/>
+        <v>-6.8001768045968956E-4</v>
       </c>
       <c r="E61">
-        <f t="shared" si="3"/>
-        <v>6.6798641114982652E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>7.4143505151133974E-3</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
+        <v>6.7343328346537081E-3</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>1263.9999999999968</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62">
         <v>0.38999999999999901</v>
       </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>0.168277528477735</v>
-      </c>
       <c r="C62">
-        <f t="shared" si="1"/>
-        <v>-6.7311011391094002E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.16418093918232782</v>
       </c>
       <c r="D62">
-        <f t="shared" si="2"/>
-        <v>7.4297768381083934E-3</v>
+        <f t="shared" si="1"/>
+        <v>-6.5672375672931127E-4</v>
       </c>
       <c r="E62">
-        <f t="shared" si="3"/>
-        <v>6.7566667241974535E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>7.4663716702842659E-3</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="3"/>
+        <v>6.8096479135549542E-3</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>1232.3999999999969</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63">
         <v>0.37999999999999901</v>
       </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>0.16244870041039616</v>
-      </c>
       <c r="C63">
-        <f t="shared" si="1"/>
-        <v>-6.4979480164158469E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.15846697381458308</v>
       </c>
       <c r="D63">
-        <f t="shared" si="2"/>
-        <v>7.4818457592339309E-3</v>
+        <f t="shared" si="1"/>
+        <v>-6.3386789525833229E-4</v>
       </c>
       <c r="E63">
-        <f t="shared" si="3"/>
-        <v>6.8320509575923467E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>7.5174145229143291E-3</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="3"/>
+        <v>6.8835466276559966E-3</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="4"/>
+        <v>1200.799999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64">
         <v>0.369999999999999</v>
       </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
-        <v>0.15672653337851516</v>
-      </c>
       <c r="C64">
-        <f t="shared" si="1"/>
-        <v>-6.2690613351406069E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.15285946348807064</v>
       </c>
       <c r="D64">
-        <f t="shared" si="2"/>
-        <v>7.532961877329724E-3</v>
+        <f t="shared" si="1"/>
+        <v>-6.1143785395228252E-4</v>
       </c>
       <c r="E64">
-        <f t="shared" si="3"/>
-        <v>6.9060557438156631E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>7.5675064126610649E-3</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="3"/>
+        <v>6.9560685587087825E-3</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="4"/>
+        <v>1169.1999999999969</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65">
         <v>0.35999999999999899</v>
       </c>
-      <c r="B65">
-        <f t="shared" si="0"/>
-        <v>0.15110812625923381</v>
-      </c>
       <c r="C65">
-        <f t="shared" si="1"/>
-        <v>-6.0443250503693525E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.14735546066591515</v>
       </c>
       <c r="D65">
-        <f t="shared" si="2"/>
-        <v>7.5831511081262647E-3</v>
+        <f t="shared" si="1"/>
+        <v>-5.8942184266366066E-4</v>
       </c>
       <c r="E65">
-        <f t="shared" si="3"/>
-        <v>6.9787186030893294E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>7.6166736698713806E-3</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="3"/>
+        <v>7.0272518272077198E-3</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="4"/>
+        <v>1137.5999999999967</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66">
         <v>0.34999999999999898</v>
       </c>
-      <c r="B66">
-        <f t="shared" si="0"/>
-        <v>0.14559068219633886</v>
-      </c>
       <c r="C66">
-        <f t="shared" si="1"/>
-        <v>-5.8236272878535542E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.14195212563168641</v>
       </c>
       <c r="D66">
-        <f t="shared" si="2"/>
-        <v>7.6324384359401053E-3</v>
+        <f t="shared" si="1"/>
+        <v>-5.6780850252674563E-4</v>
       </c>
       <c r="E66">
-        <f t="shared" si="3"/>
-        <v>7.05007570715475E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>7.6649416617321445E-3</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="3"/>
+        <v>7.0971331592053991E-3</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="4"/>
+        <v>1105.9999999999968</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67">
         <v>0.33999999999999903</v>
       </c>
-      <c r="B67">
-        <f t="shared" ref="B67:B101" si="4">(A67/3.16)/((1-A67)+(A67/3.16))</f>
-        <v>0.14017150395778311</v>
-      </c>
       <c r="C67">
-        <f t="shared" ref="C67:C101" si="5">-0.004*B67</f>
-        <v>-5.6068601583113243E-4</v>
+        <f t="shared" ref="C67:C101" si="5">(B67/3.16)/(((1-B67)*1.03)+(B67/3.16))</f>
+        <v>0.13664672160400693</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D101" si="6">(1-B67)*0.008933</f>
-        <v>7.6808479551451238E-3</v>
+        <f t="shared" ref="D67:D101" si="6">-0.004*C67</f>
+        <v>-5.4658688641602777E-4</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E101" si="7">C67+D67</f>
-        <v>7.120161939313991E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
+        <f t="shared" ref="E67:E101" si="7">(1-C67)*0.008933</f>
+        <v>7.7123348359114064E-3</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F101" si="8">D67+E67</f>
+        <v>7.1657479494953782E-3</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G101" si="9">3.16*B67*1000</f>
+        <v>1074.3999999999969</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68">
         <v>0.32999999999999902</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="4"/>
-        <v>0.13484798953906452</v>
       </c>
       <c r="C68">
         <f t="shared" si="5"/>
-        <v>-5.3939195815625807E-4</v>
+        <v>0.13143661011440511</v>
       </c>
       <c r="D68">
         <f t="shared" si="6"/>
-        <v>7.7284029094475369E-3</v>
+        <v>-5.2574644045762047E-4</v>
       </c>
       <c r="E68">
         <f t="shared" si="7"/>
-        <v>7.1890109512912793E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
+        <v>7.7588767618480192E-3</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="8"/>
+        <v>7.2331303213903986E-3</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="9"/>
+        <v>1042.7999999999968</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69">
         <v>0.31999999999999901</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="4"/>
-        <v>0.12961762799740711</v>
       </c>
       <c r="C69">
         <f t="shared" si="5"/>
-        <v>-5.1847051198962847E-4</v>
+        <v>0.12631924663201255</v>
       </c>
       <c r="D69">
         <f t="shared" si="6"/>
-        <v>7.7751257290991629E-3</v>
+        <v>-5.0527698652805026E-4</v>
       </c>
       <c r="E69">
         <f t="shared" si="7"/>
-        <v>7.2566552171095342E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
+        <v>7.804590169836232E-3</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="8"/>
+        <v>7.299313183308182E-3</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="9"/>
+        <v>1011.199999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70">
         <v>0.309999999999999</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="4"/>
-        <v>0.12447799550272996</v>
       </c>
       <c r="C70">
         <f t="shared" si="5"/>
-        <v>-4.9791198201091982E-4</v>
+        <v>0.12129217641986136</v>
       </c>
       <c r="D70">
         <f t="shared" si="6"/>
-        <v>7.8210380661741137E-3</v>
+        <v>-4.8516870567944545E-4</v>
       </c>
       <c r="E70">
         <f t="shared" si="7"/>
-        <v>7.3231260841631939E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
+        <v>7.8494969880413788E-3</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="8"/>
+        <v>7.3643282823619332E-3</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="9"/>
+        <v>979.59999999999695</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71">
         <v>0.29999999999999899</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="4"/>
-        <v>0.11942675159235618</v>
       </c>
       <c r="C71">
         <f t="shared" si="5"/>
-        <v>-4.7770700636942469E-4</v>
+        <v>0.1163530306086034</v>
       </c>
       <c r="D71">
         <f t="shared" si="6"/>
-        <v>7.866160828025482E-3</v>
+        <v>-4.6541212243441364E-4</v>
       </c>
       <c r="E71">
         <f t="shared" si="7"/>
-        <v>7.3884538216560571E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
+        <v>7.8936183775733457E-3</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="8"/>
+        <v>7.4282062551389322E-3</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="9"/>
+        <v>947.99999999999682</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72">
         <v>0.28999999999999898</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="4"/>
-        <v>0.11446163561730292</v>
       </c>
       <c r="C72">
         <f t="shared" si="5"/>
-        <v>-4.5784654246921173E-4</v>
+        <v>0.11149952247445839</v>
       </c>
       <c r="D72">
         <f t="shared" si="6"/>
-        <v>7.9105142090306335E-3</v>
+        <v>-4.4599808989783356E-4</v>
       </c>
       <c r="E72">
         <f t="shared" si="7"/>
-        <v>7.452667666561422E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
+        <v>7.9369747657356635E-3</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="8"/>
+        <v>7.49097667583783E-3</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="9"/>
+        <v>916.39999999999679</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73">
         <v>0.27999999999999903</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="4"/>
-        <v>0.10958046336881606</v>
       </c>
       <c r="C73">
         <f t="shared" si="5"/>
-        <v>-4.3832185347526429E-4</v>
+        <v>0.10672944390910265</v>
       </c>
       <c r="D73">
         <f t="shared" si="6"/>
-        <v>7.9541177207263659E-3</v>
+        <v>-4.2691777563641059E-4</v>
       </c>
       <c r="E73">
         <f t="shared" si="7"/>
-        <v>7.5157958672511013E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
+        <v>7.9795858775599856E-3</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="8"/>
+        <v>7.5526681019235748E-3</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="9"/>
+        <v>884.79999999999688</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74">
         <v>0.26999999999999902</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="4"/>
-        <v>0.10478112387457265</v>
       </c>
       <c r="C74">
         <f t="shared" si="5"/>
-        <v>-4.1912449549829061E-4</v>
+        <v>0.10204066207004933</v>
       </c>
       <c r="D74">
         <f t="shared" si="6"/>
-        <v>7.9969902204284436E-3</v>
+        <v>-4.0816264828019732E-4</v>
       </c>
       <c r="E74">
         <f t="shared" si="7"/>
-        <v>7.5778657249301528E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
+        <v>8.0214707657282492E-3</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="8"/>
+        <v>7.6133081174480522E-3</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="9"/>
+        <v>853.19999999999698</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75">
         <v>0.25999999999999901</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="4"/>
-        <v>0.10006157635467934</v>
       </c>
       <c r="C75">
         <f t="shared" si="5"/>
-        <v>-4.0024630541871738E-4</v>
+        <v>9.7431116200845561E-2</v>
       </c>
       <c r="D75">
         <f t="shared" si="6"/>
-        <v>8.0391499384236485E-3</v>
+        <v>-3.8972446480338224E-4</v>
       </c>
       <c r="E75">
         <f t="shared" si="7"/>
-        <v>7.6389036330049313E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
+        <v>8.0626478389778464E-3</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="8"/>
+        <v>7.6729233741744639E-3</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="9"/>
+        <v>821.59999999999684</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76">
         <v>0.249999999999999</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="4"/>
-        <v>9.5419847328243823E-2</v>
       </c>
       <c r="C76">
         <f t="shared" si="5"/>
-        <v>-3.8167938931297531E-4</v>
+        <v>9.2898814611125119E-2</v>
       </c>
       <c r="D76">
         <f t="shared" si="6"/>
-        <v>8.0806145038167972E-3</v>
+        <v>-3.7159525844450051E-4</v>
       </c>
       <c r="E76">
         <f t="shared" si="7"/>
-        <v>7.6989351145038219E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
+        <v>8.1031348890788189E-3</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="8"/>
+        <v>7.7315396306343181E-3</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="9"/>
+        <v>789.99999999999693</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77">
         <v>0.23999999999999899</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="4"/>
-        <v>9.0854027861901429E-2</v>
       </c>
       <c r="C77">
         <f t="shared" si="5"/>
-        <v>-3.6341611144760573E-4</v>
+        <v>8.8441831807219942E-2</v>
       </c>
       <c r="D77">
         <f t="shared" si="6"/>
-        <v>8.1214009691096337E-3</v>
+        <v>-3.5376732722887979E-4</v>
       </c>
       <c r="E77">
         <f t="shared" si="7"/>
-        <v>7.7579848576620281E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
+        <v>8.1429491164661041E-3</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="8"/>
+        <v>7.7891817892372242E-3</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="9"/>
+        <v>758.39999999999691</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78">
         <v>0.22999999999999901</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="4"/>
-        <v>8.636227095223746E-2</v>
       </c>
       <c r="C78">
         <f t="shared" si="5"/>
-        <v>-3.4544908380894986E-4</v>
+        <v>8.4058305764645069E-2</v>
       </c>
       <c r="D78">
         <f t="shared" si="6"/>
-        <v>8.1615258335836632E-3</v>
+        <v>-3.3623322305858031E-4</v>
       </c>
       <c r="E78">
         <f t="shared" si="7"/>
-        <v>7.8160767497747127E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
+        <v>8.1821071546044257E-3</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="8"/>
+        <v>7.8458739315458454E-3</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="9"/>
+        <v>726.79999999999688</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79">
         <v>0.219999999999999</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="4"/>
-        <v>8.1942789034564506E-2</v>
       </c>
       <c r="C79">
         <f t="shared" si="5"/>
-        <v>-3.2777115613825801E-4</v>
+        <v>7.9746435334340116E-2</v>
       </c>
       <c r="D79">
         <f t="shared" si="6"/>
-        <v>8.2010050655542347E-3</v>
+        <v>-3.1898574133736046E-4</v>
       </c>
       <c r="E79">
         <f t="shared" si="7"/>
-        <v>7.8732339094159769E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
+        <v>8.2206250931583392E-3</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="8"/>
+        <v>7.9016393518209788E-3</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="9"/>
+        <v>695.19999999999698</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80">
         <v>0.20999999999999899</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="4"/>
-        <v>7.7593851610995718E-2</v>
       </c>
       <c r="C80">
         <f t="shared" si="5"/>
-        <v>-3.103754064439829E-4</v>
+        <v>7.5504477775076753E-2</v>
       </c>
       <c r="D80">
         <f t="shared" si="6"/>
-        <v>8.2398541235589751E-3</v>
+        <v>-3.0201791110030703E-4</v>
       </c>
       <c r="E80">
         <f t="shared" si="7"/>
-        <v>7.9294787171149926E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
+        <v>8.2585185000352401E-3</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="8"/>
+        <v>7.9565005889349338E-3</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="9"/>
+        <v>663.59999999999684</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81">
         <v>0.19999999999999901</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="4"/>
-        <v>7.3313782991201934E-2</v>
       </c>
       <c r="C81">
         <f t="shared" si="5"/>
-        <v>-2.9325513196480776E-4</v>
+        <v>7.1330746404929979E-2</v>
       </c>
       <c r="D81">
         <f t="shared" si="6"/>
-        <v>8.2780879765395922E-3</v>
+        <v>-2.8532298561971992E-4</v>
       </c>
       <c r="E81">
         <f t="shared" si="7"/>
-        <v>7.9848328445747841E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
+        <v>8.2958024423647608E-3</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="8"/>
+        <v>8.0104794567450403E-3</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="9"/>
+        <v>631.99999999999693</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82">
         <v>0.189999999999999</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="4"/>
-        <v>6.9100960139656262E-2</v>
       </c>
       <c r="C82">
         <f t="shared" si="5"/>
-        <v>-2.7640384055862503E-4</v>
+        <v>6.7223608365163889E-2</v>
       </c>
       <c r="D82">
         <f t="shared" si="6"/>
-        <v>8.3157211230724497E-3</v>
+        <v>-2.6889443346065554E-4</v>
       </c>
       <c r="E82">
         <f t="shared" si="7"/>
-        <v>8.0393172825138255E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
+        <v>8.3324915064739921E-3</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="8"/>
+        <v>8.0635970730133372E-3</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="9"/>
+        <v>600.39999999999679</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83">
         <v>0.17999999999999899</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="4"/>
-        <v>6.4953810623556166E-2</v>
       </c>
       <c r="C83">
         <f t="shared" si="5"/>
-        <v>-2.5981524249422467E-4</v>
+        <v>6.3181482490304752E-2</v>
       </c>
       <c r="D83">
         <f t="shared" si="6"/>
-        <v>8.3527676096997721E-3</v>
+        <v>-2.5272592996121901E-4</v>
       </c>
       <c r="E83">
         <f t="shared" si="7"/>
-        <v>8.0929523672055477E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
+        <v>8.3685998169141084E-3</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="8"/>
+        <v>8.1158738869528887E-3</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="9"/>
+        <v>568.79999999999688</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84">
         <v>0.16999999999999901</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="4"/>
-        <v>6.0870810655972094E-2</v>
       </c>
       <c r="C84">
         <f t="shared" si="5"/>
-        <v>-2.4348324262388839E-4</v>
+        <v>5.9202837278563583E-2</v>
       </c>
       <c r="D84">
         <f t="shared" si="6"/>
-        <v>8.3892410484102016E-3</v>
+        <v>-2.3681134911425434E-4</v>
       </c>
       <c r="E84">
         <f t="shared" si="7"/>
-        <v>8.1457578057863127E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
+        <v>8.4041410545905911E-3</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="8"/>
+        <v>8.1673297054763363E-3</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="9"/>
+        <v>537.19999999999686</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85">
         <v>0.159999999999999</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="4"/>
-        <v>5.6850483229107046E-2</v>
       </c>
       <c r="C85">
         <f t="shared" si="5"/>
-        <v>-2.2740193291642818E-4</v>
+        <v>5.5286188957136224E-2</v>
       </c>
       <c r="D85">
         <f t="shared" si="6"/>
-        <v>8.4251546333143877E-3</v>
+        <v>-2.211447558285449E-4</v>
       </c>
       <c r="E85">
         <f t="shared" si="7"/>
-        <v>8.1977527003979592E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
+        <v>8.4391284740459021E-3</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="8"/>
+        <v>8.217983718217357E-3</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="9"/>
+        <v>505.59999999999684</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86">
         <v>0.149999999999999</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="4"/>
-        <v>5.2891396332862786E-2</v>
       </c>
       <c r="C86">
         <f t="shared" si="5"/>
-        <v>-2.1156558533145115E-4</v>
+        <v>5.1430099637245971E-2</v>
       </c>
       <c r="D86">
         <f t="shared" si="6"/>
-        <v>8.4605211565585373E-3</v>
+        <v>-2.0572039854898388E-4</v>
       </c>
       <c r="E86">
         <f t="shared" si="7"/>
-        <v>8.248955571227087E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
+        <v>8.4735749199404808E-3</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="8"/>
+        <v>8.2678545213914975E-3</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="9"/>
+        <v>473.99999999999687</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87">
         <v>0.13999999999999899</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="4"/>
-        <v>4.8992161254198932E-2</v>
       </c>
       <c r="C87">
         <f t="shared" si="5"/>
-        <v>-1.9596864501679573E-4</v>
+        <v>4.7633175554109543E-2</v>
       </c>
       <c r="D87">
         <f t="shared" si="6"/>
-        <v>8.4953530235162417E-3</v>
+        <v>-1.9053270221643817E-4</v>
       </c>
       <c r="E87">
         <f t="shared" si="7"/>
-        <v>8.2993843784994453E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
+        <v>8.5074928427751398E-3</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="8"/>
+        <v>8.3169601405587018E-3</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="9"/>
+        <v>442.39999999999679</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88">
         <v>0.12999999999999901</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="4"/>
-        <v>4.5151430953042131E-2</v>
       </c>
       <c r="C88">
         <f t="shared" si="5"/>
-        <v>-1.8060572381216854E-4</v>
+        <v>4.3894065387300604E-2</v>
       </c>
       <c r="D88">
         <f t="shared" si="6"/>
-        <v>8.5296622672964752E-3</v>
+        <v>-1.7557626154920242E-4</v>
       </c>
       <c r="E88">
         <f t="shared" si="7"/>
-        <v>8.3490565434843067E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
+        <v>8.5408943138952434E-3</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="8"/>
+        <v>8.3653180523460408E-3</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="9"/>
+        <v>410.79999999999688</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89">
         <v>0.119999999999999</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="4"/>
-        <v>4.1367898510755279E-2</v>
       </c>
       <c r="C89">
         <f t="shared" si="5"/>
-        <v>-1.6547159404302112E-4</v>
+        <v>4.0211458657258607E-2</v>
       </c>
       <c r="D89">
         <f t="shared" si="6"/>
-        <v>8.5634605626034224E-3</v>
+        <v>-1.6084583462903443E-4</v>
       </c>
       <c r="E89">
         <f t="shared" si="7"/>
-        <v>8.3979889685604006E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
+        <v>8.5737910398147096E-3</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="8"/>
+        <v>8.4129452051856755E-3</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="9"/>
+        <v>379.19999999999686</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90">
         <v>0.109999999999999</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="4"/>
-        <v>3.7640295647412711E-2</v>
       </c>
       <c r="C90">
         <f t="shared" si="5"/>
-        <v>-1.5056118258965085E-4</v>
+        <v>3.6584084193945834E-2</v>
       </c>
       <c r="D90">
         <f t="shared" si="6"/>
-        <v>8.5967592389816633E-3</v>
+        <v>-1.4633633677578334E-4</v>
       </c>
       <c r="E90">
         <f t="shared" si="7"/>
-        <v>8.4461980563920128E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
+        <v>8.6061943758954807E-3</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="8"/>
+        <v>8.4598580391196977E-3</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="9"/>
+        <v>347.59999999999684</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91">
         <v>9.9999999999999006E-2</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="4"/>
-        <v>3.3967391304347457E-2</v>
       </c>
       <c r="C91">
         <f t="shared" si="5"/>
-        <v>-1.3586956521738984E-4</v>
+        <v>3.3010708673893455E-2</v>
       </c>
       <c r="D91">
         <f t="shared" si="6"/>
-        <v>8.6295692934782644E-3</v>
+        <v>-1.3204283469557383E-4</v>
       </c>
       <c r="E91">
         <f t="shared" si="7"/>
-        <v>8.4936997282608739E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
+        <v>8.6381153394161098E-3</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="8"/>
+        <v>8.5060725047205361E-3</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="9"/>
+        <v>315.99999999999687</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92">
         <v>8.9999999999998997E-2</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="4"/>
-        <v>3.0347990288642743E-2</v>
       </c>
       <c r="C92">
         <f t="shared" si="5"/>
-        <v>-1.2139196115457098E-4</v>
+        <v>2.9490135222099683E-2</v>
       </c>
       <c r="D92">
         <f t="shared" si="6"/>
-        <v>8.661901402751554E-3</v>
+        <v>-1.1796054088839873E-4</v>
       </c>
       <c r="E92">
         <f t="shared" si="7"/>
-        <v>8.5405094415969829E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
+        <v>8.6695646220609837E-3</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="8"/>
+        <v>8.5516040811725851E-3</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="9"/>
+        <v>284.39999999999679</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93">
         <v>7.9999999999999002E-2</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="4"/>
-        <v>2.6780931976432425E-2</v>
       </c>
       <c r="C93">
         <f t="shared" si="5"/>
-        <v>-1.0712372790572971E-4</v>
+        <v>2.6021202075450733E-2</v>
       </c>
       <c r="D93">
         <f t="shared" si="6"/>
-        <v>8.69376593465453E-3</v>
+        <v>-1.0408480830180293E-4</v>
       </c>
       <c r="E93">
         <f t="shared" si="7"/>
-        <v>8.5866422067488006E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
+        <v>8.7005526018599979E-3</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="8"/>
+        <v>8.5964677935581948E-3</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="9"/>
+        <v>252.79999999999686</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94">
         <v>6.9999999999998994E-2</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="4"/>
-        <v>2.3265089072054951E-2</v>
       </c>
       <c r="C94">
         <f t="shared" si="5"/>
-        <v>-9.3060356288219813E-5</v>
+        <v>2.2602781304528866E-2</v>
       </c>
       <c r="D94">
         <f t="shared" si="6"/>
-        <v>8.7251729593193338E-3</v>
+        <v>-9.0411125218115471E-5</v>
       </c>
       <c r="E94">
         <f t="shared" si="7"/>
-        <v>8.6321126030311137E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
+        <v>8.7310893546066436E-3</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="8"/>
+        <v>8.6406782293885279E-3</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="9"/>
+        <v>221.19999999999681</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95">
         <v>5.9999999999998901E-2</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="4"/>
-        <v>1.9799366420274172E-2</v>
       </c>
       <c r="C95">
         <f t="shared" si="5"/>
-        <v>-7.9197465681096692E-5</v>
+        <v>1.9233777590853585E-2</v>
       </c>
       <c r="D95">
         <f t="shared" si="6"/>
-        <v>8.7561322597676915E-3</v>
+        <v>-7.6935110363414338E-5</v>
       </c>
       <c r="E95">
         <f t="shared" si="7"/>
-        <v>8.6769347940865941E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
+        <v>8.7611846647809057E-3</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="8"/>
+        <v>8.6842495544174909E-3</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="9"/>
+        <v>189.59999999999656</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96">
         <v>4.9999999999998997E-2</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="4"/>
-        <v>1.6382699868938061E-2</v>
       </c>
       <c r="C96">
         <f t="shared" si="5"/>
-        <v>-6.5530799475752247E-5</v>
+        <v>1.591312705677134E-2</v>
       </c>
       <c r="D96">
         <f t="shared" si="6"/>
-        <v>8.7866533420707764E-3</v>
+        <v>-6.3652508227085369E-5</v>
       </c>
       <c r="E96">
         <f t="shared" si="7"/>
-        <v>8.721122542595024E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
+        <v>8.7908480360018616E-3</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="8"/>
+        <v>8.7271955277747771E-3</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="9"/>
+        <v>157.99999999999685</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97">
         <v>3.9999999999999002E-2</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="4"/>
-        <v>1.3014055179593626E-2</v>
       </c>
       <c r="C97">
         <f t="shared" si="5"/>
-        <v>-5.205622071837451E-5</v>
+        <v>1.2639796145367444E-2</v>
       </c>
       <c r="D97">
         <f t="shared" si="6"/>
-        <v>8.8167454450806901E-3</v>
+        <v>-5.0559184581469773E-5</v>
       </c>
       <c r="E97">
         <f t="shared" si="7"/>
-        <v>8.764689224362316E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
+        <v>8.8200887010334329E-3</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="8"/>
+        <v>8.7695295164519627E-3</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="9"/>
+        <v>126.39999999999685</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98">
         <v>2.9999999999999E-2</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="4"/>
-        <v>9.6924269837163918E-3</v>
       </c>
       <c r="C98">
         <f t="shared" si="5"/>
-        <v>-3.876970793486557E-5</v>
+        <v>9.4127805479239102E-3</v>
       </c>
       <c r="D98">
         <f t="shared" si="6"/>
-        <v>8.8464175497544612E-3</v>
+        <v>-3.7651122191695641E-5</v>
       </c>
       <c r="E98">
         <f t="shared" si="7"/>
-        <v>8.807647841819595E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
+        <v>8.8489156313653946E-3</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="8"/>
+        <v>8.8112645091736989E-3</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="9"/>
+        <v>94.799999999996842</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99">
         <v>1.9999999999999001E-2</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="4"/>
-        <v>6.4168377823405369E-3</v>
       </c>
       <c r="C99">
         <f t="shared" si="5"/>
-        <v>-2.5667351129362148E-5</v>
+        <v>6.231104176584192E-3</v>
       </c>
       <c r="D99">
         <f t="shared" si="6"/>
-        <v>8.8756783880903512E-3</v>
+        <v>-2.4924416706336768E-5</v>
       </c>
       <c r="E99">
         <f t="shared" si="7"/>
-        <v>8.8500110369609895E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
+        <v>8.8773375463905724E-3</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="8"/>
+        <v>8.8524131296842355E-3</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="9"/>
+        <v>63.199999999996841</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100">
         <v>9.9999999999990097E-3</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="4"/>
-        <v>3.1863369869994272E-3</v>
       </c>
       <c r="C100">
         <f t="shared" si="5"/>
-        <v>-1.2745347947997709E-5</v>
+        <v>3.0938181800178335E-3</v>
       </c>
       <c r="D100">
         <f t="shared" si="6"/>
-        <v>8.9045364516951338E-3</v>
+        <v>-1.2375272720071335E-5</v>
       </c>
       <c r="E100">
         <f t="shared" si="7"/>
-        <v>8.8917911037471355E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>0</v>
-      </c>
+        <v>8.9053629221978996E-3</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="8"/>
+        <v>8.8929876494778289E-3</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="9"/>
+        <v>31.599999999996875</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
       <c r="B101">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C101">
@@ -3520,11 +3968,19 @@
       </c>
       <c r="D101">
         <f t="shared" si="6"/>
-        <v>8.933E-3</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <f t="shared" si="7"/>
         <v>8.933E-3</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="8"/>
+        <v>8.933E-3</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3534,12 +3990,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
